--- a/data/test_case_1.xlsx
+++ b/data/test_case_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CBFE63-219A-E548-A530-19C42DA78D8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E631211F-C383-0D4D-89A3-E9E4F2CF096B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26640" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="26640" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -923,7 +923,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,44 +942,20 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
@@ -995,41 +971,17 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>38</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>40</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -1048,38 +1000,14 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
         <v>20</v>
       </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -1092,44 +1020,20 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1">
@@ -1142,47 +1046,27 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="O5" s="1">
-        <v>5</v>
-      </c>
-      <c r="P5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>

--- a/data/test_case_1.xlsx
+++ b/data/test_case_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E631211F-C383-0D4D-89A3-E9E4F2CF096B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118907A-3013-6F43-B88F-5775712DA408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="500" windowWidth="26640" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="500" windowWidth="26640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>R23</t>
   </si>
   <si>
-    <t>Atlantis</t>
-  </si>
-  <si>
     <t>Brobdingnag</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Foremz</t>
+  </si>
+  <si>
+    <t>self</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,22 +527,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -554,18 +554,18 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>30</v>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC005AC-D37A-A34C-9167-2E6ABF6B99D3}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,12 +951,12 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -1112,22 +1112,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -1139,18 +1139,18 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>

--- a/data/test_case_1.xlsx
+++ b/data/test_case_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF523C8-5FBF-2E48-A548-88BE1F56FFE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F241599-572A-7A48-91C5-60C4A36D1BC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="500" windowWidth="26640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Country</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>self</t>
+  </si>
+  <si>
+    <t>Disaster</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,7 +514,9 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1"/>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
       <c r="J1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -541,7 +546,9 @@
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2"/>
+      <c r="I2">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="J2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -571,7 +578,9 @@
       <c r="H3">
         <v>20</v>
       </c>
-      <c r="I3"/>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
       <c r="J3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -601,7 +610,9 @@
       <c r="H4">
         <v>6</v>
       </c>
-      <c r="I4"/>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
       <c r="J4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -631,7 +642,9 @@
       <c r="H5">
         <v>8</v>
       </c>
-      <c r="I5"/>
+      <c r="I5">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="J5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -661,7 +674,9 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6"/>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
       <c r="J6"/>
       <c r="O6"/>
       <c r="P6"/>
@@ -691,6 +706,9 @@
       <c r="H7" s="1">
         <v>4</v>
       </c>
+      <c r="I7">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
